--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA889AAF-DEDE-4E90-99B5-8AD2114812A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B65E1DA-230B-49C2-A01B-5529B5D18B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="2280" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -286,12 +287,179 @@
 Berlin Heidelberg, 2004.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据依赖示例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现有并行性分析工具</t>
+    </r>
+  </si>
+  <si>
+    <t>http://llvm.org/. [Online; accessed 26-July-2016].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制依赖示例</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.4 LLVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>架构</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传统静态编译器架构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图2.5 LLVM IR示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Z , Pan S , Chen F , et al. A Comprehensive Survey on Graph Neural Networks[J]. 2019.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. Gori, G. Monfardini, and F. Scarselli, “A new model for learning in
+graph domains,” in Proc. of IJCNN, vol. 2. IEEE, 2005, pp. 729–734.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图神经网络相关符号及其含义</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +481,19 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -923,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -931,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -939,7 +1123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -947,7 +1131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -955,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -963,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -971,7 +1155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -979,15 +1163,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -995,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1003,7 +1190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1011,7 +1198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1019,7 +1206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1027,7 +1214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1035,7 +1222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1043,7 +1230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -1142,6 +1329,45 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1152,8 +1378,60 @@
     <hyperlink ref="B50" r:id="rId3" xr:uid="{04874108-34B2-44C0-8C26-70423C1E60C7}"/>
     <hyperlink ref="B51" r:id="rId4" xr:uid="{377922B2-34A7-4853-8A00-52F065AA5891}"/>
     <hyperlink ref="B55" r:id="rId5" xr:uid="{164551FC-2C2C-4CF8-A1A0-E6DCA65C8F2F}"/>
+    <hyperlink ref="B60" r:id="rId6" xr:uid="{A07500ED-11E5-4527-8587-921A2079FB8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B65E1DA-230B-49C2-A01B-5529B5D18B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905B75C-FF54-449D-B789-C48252E58060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="2280" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -432,7 +432,7 @@
   </si>
   <si>
     <r>
-      <t>表</t>
+      <t>图</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +441,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">2.2 </t>
+      <t xml:space="preserve">2.6 </t>
     </r>
     <r>
       <rPr>
@@ -451,8 +451,96 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>图神经网络相关符号及其含义</t>
-    </r>
+      <t>程序的上下文流图示例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.7 Polyhedral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型示例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于多面体模型的编译工具工作流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有向图</t>
+    </r>
+  </si>
+  <si>
+    <t>图2.10 GNN状态更新示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图2.11 GNN状态更新与输出流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kipf T N , Welling M . Semi-Supervised Classification with Graph Convolutional Networks[J]. 2016.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图2.12 卷积示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -841,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1353,6 +1441,9 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -1395,7 +1486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1411,9 +1502,7 @@
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1430,8 +1519,44 @@
         <v>62</v>
       </c>
     </row>
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905B75C-FF54-449D-B789-C48252E58060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A6A85-A707-4C21-A7E1-47115F628CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -540,6 +546,29 @@
   </si>
   <si>
     <t>图2.12 卷积示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.1 能源勘探行业软件对比</t>
+  </si>
+  <si>
+    <t>npb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>livermore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>537-167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.2 基于XML的标记语言相关研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1478,19 +1507,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
@@ -1498,58 +1528,106 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3">
+        <v>812</v>
+      </c>
+      <c r="M3">
+        <v>262</v>
+      </c>
+      <c r="N3">
+        <f>SUM(L3:M3)</f>
+        <v>1074</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>787</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>1723</v>
+      </c>
+      <c r="J5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>147</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>73</v>
       </c>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A6A85-A707-4C21-A7E1-47115F628CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359DA14-260A-401B-9A0B-0422EFC5C4ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="2280" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -569,6 +569,62 @@
   </si>
   <si>
     <t>表5.2 基于XML的标记语言相关研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.1 并行标记语言技术路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13常用指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8个常用库函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12个常用子句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8个点对点消息传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个组例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个初等例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.2 PML示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.4 PML向C语言转换完整流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.3 XSLT示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.6 平台架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.5 PML转换算法描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.7 GateOne配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,16 +1563,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
-  <dimension ref="B2:O13"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1632,6 +1690,74 @@
         <v>73</v>
       </c>
     </row>
+    <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359DA14-260A-401B-9A0B-0422EFC5C4ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E57D44-D3C2-4689-ADF8-75B42CF56799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="2280" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="157">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -627,12 +628,397 @@
     <t>图5.7 GateOne配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AIDS</t>
+  </si>
+  <si>
+    <t>[16,17]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>BZR</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>BZR_MD</t>
+  </si>
+  <si>
+    <t>[7,23]</t>
+  </si>
+  <si>
+    <t>COX2</t>
+  </si>
+  <si>
+    <t>DHFR</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>[6,22]</t>
+  </si>
+  <si>
+    <t>IMDB-BINARY</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>Num. of Graphs</t>
+  </si>
+  <si>
+    <t>Num. of Classes</t>
+  </si>
+  <si>
+    <t>Avg. Number of Edges</t>
+  </si>
+  <si>
+    <t>KKI</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>MSRC_21</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>PROTEINS</t>
+  </si>
+  <si>
+    <t>[4,6]</t>
+  </si>
+  <si>
+    <t>PTC_MR</t>
+  </si>
+  <si>
+    <t>[2,23]</t>
+  </si>
+  <si>
+    <t>MUTAG</t>
+  </si>
+  <si>
+    <t>[1,23]</t>
+  </si>
+  <si>
+    <t>NCI1</t>
+  </si>
+  <si>
+    <t>[8,9,22]</t>
+  </si>
+  <si>
+    <t>IMDB-MULTI</t>
+  </si>
+  <si>
+    <t>Avg. +F17+E2:E15+E2:E16+E2:E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.1livermo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环详情表</t>
+    </r>
+  </si>
+  <si>
+    <t>表3.2 NPB详情表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3.3一般程序详情表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集的源码文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环提取重构后的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_pluto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pluto编译器转换后的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pluto编译器无法转换的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLVM IR文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序的上下文流图文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类别下的所有文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类别下可以被并行化的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unparallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类别下不可被并行化的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目录结构说明</t>
+    </r>
+  </si>
+  <si>
+    <t>图3.2程序的抽象结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环提取算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码重构算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译命令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.6Pluto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.7Pluto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.4Pluto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令参数表</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +1054,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +1101,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EACC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -712,12 +1137,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB2B3B6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB2B3B6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB2B3B6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB2B3B6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB2B3B6"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB2B3B6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB2B3B6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB2B3B6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB2B3B6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB2B3B6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB2B3B6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB2B3B6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,6 +1222,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,6 +1269,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>883919</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>204410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586738</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C75DAB4-7EEC-46EF-915D-9FBBC20C20A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6995159" y="5081210"/>
+          <a:ext cx="2232659" cy="2911935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1562,11 +2133,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C6A3-0961-4885-ABBE-5341039D1517}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="19.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="9" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="9"/>
+    <col min="10" max="10" width="26.5546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15.69</v>
+      </c>
+      <c r="F3" s="10">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10">
+        <v>405</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>35.75</v>
+      </c>
+      <c r="F4" s="10">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="10">
+        <v>306</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>21.3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>225.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10">
+        <v>467</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>41.22</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="10">
+        <v>467</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>42.43</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1178</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>284.32</v>
+      </c>
+      <c r="F8" s="10">
+        <v>715.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>19.77</v>
+      </c>
+      <c r="F9" s="10">
+        <v>96.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10">
+        <v>65.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="10">
+        <v>83</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>26.96</v>
+      </c>
+      <c r="F11" s="10">
+        <v>48.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="10">
+        <v>563</v>
+      </c>
+      <c r="D12" s="10">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10">
+        <v>77.52</v>
+      </c>
+      <c r="F12" s="10">
+        <v>198.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1113</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>39.06</v>
+      </c>
+      <c r="F13" s="10">
+        <v>72.819999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="10">
+        <v>344</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>14.29</v>
+      </c>
+      <c r="F14" s="10">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="10">
+        <v>188</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>17.93</v>
+      </c>
+      <c r="F15" s="10">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4110</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>29.87</v>
+      </c>
+      <c r="F16" s="10">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="9">
+        <v>980</v>
+      </c>
+      <c r="E17" s="9">
+        <v>50</v>
+      </c>
+      <c r="F17" s="9">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1585,6 +2591,12 @@
       <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="L2">
+        <v>406</v>
+      </c>
+      <c r="M2">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1628,6 +2640,9 @@
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G5">
         <v>787</v>
       </c>
@@ -1645,6 +2660,9 @@
       <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G6">
         <v>147</v>
       </c>
@@ -1659,11 +2677,17 @@
       <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -1751,11 +2775,56 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>16855</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>23064</v>
       </c>
     </row>
   </sheetData>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E57D44-D3C2-4689-ADF8-75B42CF56799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB919E-2F2E-4B59-B19A-4EB876F87DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="172">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -762,82 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜集的源码文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after_extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环提取重构后的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after_pluto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pluto编译器转换后的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pluto编译器无法转换的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LLVM IR文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序的上下文流图文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该类别下的所有文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parallel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该类别下可以被并行化的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unparallel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该类别下不可被并行化的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>图</t>
     </r>
@@ -1012,13 +937,189 @@
       </rPr>
       <t>命令参数表</t>
     </r>
+  </si>
+  <si>
+    <t>数学库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令内容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  数据文件夹根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  头文件存放根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  脚本日志文件根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  编译错误日志文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pluto编译器转换错误日志文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  搜集的源码文件(.c/.cpp)按照分类分别存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  循环提取重构后的文件根目录(.c/.cpp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  LLVM IR文件根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  编译验证阶段所有IR文件存放目录(.ll)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  数据标注阶段可并行文件对应的IR文件目录(.ll)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  数据标注阶段不可并行文件对应的IR文件目录(.ll)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pluto编译器转换后的文件(.c/.cpp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  程序的上下文流图文件根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  可并行文件IR(IR/parallel)对应的XFG目录(.p/.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  不可并行文件IR(IR/unparallel)对应的XFG目录(.p/.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> XFG/unparallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> XFG/parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> XFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> after_pluto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IR/unparallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IR/parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IR/tottal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> after_extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> source_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs/pluto_error.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs/compile_error.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,8 +1182,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +1218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EACC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,15 +1338,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1250,8 +1355,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1275,23 +1398,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>883919</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289561</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>204410</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>586738</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>15005</xdr:rowOff>
+      <xdr:colOff>595735</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C75DAB4-7EEC-46EF-915D-9FBBC20C20A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D322DB7-957C-45DB-9720-6C669702206F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,8 +1430,61 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6995159" y="5081210"/>
-          <a:ext cx="2232659" cy="2911935"/>
+          <a:off x="5006341" y="5059680"/>
+          <a:ext cx="4230474" cy="4373880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB219CFD-6D36-4BFD-8FD6-980E440FEBEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7940040" cy="3291840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,25 +2309,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
+  <dimension ref="B2:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2">
+        <v>406</v>
+      </c>
+      <c r="M2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3">
+        <v>812</v>
+      </c>
+      <c r="M3">
+        <v>262</v>
+      </c>
+      <c r="N3">
+        <f>SUM(L3:M3)</f>
+        <v>1074</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5">
+        <v>787</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>1723</v>
+      </c>
+      <c r="J5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>147</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>315</v>
+      </c>
+      <c r="J6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28">
+        <v>16855</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>23064</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C6A3-0961-4885-ABBE-5341039D1517}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="19.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="9" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="9"/>
-    <col min="10" max="10" width="26.5546875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="22" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="19.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="6" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="26.88671875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="60.77734375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2161,26 +2614,26 @@
       <c r="B1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2188,19 +2641,19 @@
       <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>2000</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>15.69</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>16.2</v>
       </c>
     </row>
@@ -2208,19 +2661,19 @@
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>405</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>35.75</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>38.36</v>
       </c>
     </row>
@@ -2228,19 +2681,19 @@
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>306</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>21.3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>225.06</v>
       </c>
     </row>
@@ -2248,19 +2701,19 @@
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>467</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>41.22</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>43.45</v>
       </c>
     </row>
@@ -2268,19 +2721,19 @@
       <c r="A7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>467</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>42.43</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>44.54</v>
       </c>
     </row>
@@ -2288,19 +2741,19 @@
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>1178</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>284.32</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>715.66</v>
       </c>
     </row>
@@ -2308,19 +2761,19 @@
       <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>1000</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>19.77</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>96.53</v>
       </c>
     </row>
@@ -2328,19 +2781,19 @@
       <c r="A10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>1500</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>13</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>65.94</v>
       </c>
     </row>
@@ -2348,19 +2801,19 @@
       <c r="A11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>83</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>26.96</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>48.42</v>
       </c>
     </row>
@@ -2368,19 +2821,19 @@
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>563</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>20</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>77.52</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>198.32</v>
       </c>
     </row>
@@ -2388,19 +2841,19 @@
       <c r="A13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>1113</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>39.06</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>72.819999999999993</v>
       </c>
     </row>
@@ -2408,19 +2861,19 @@
       <c r="A14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>344</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>14.29</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>14.69</v>
       </c>
     </row>
@@ -2428,19 +2881,19 @@
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <v>17.93</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>19.79</v>
       </c>
     </row>
@@ -2448,112 +2901,152 @@
       <c r="A16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>4110</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>29.87</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>32.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>980</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>50</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>116.5</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J24" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J25" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J30" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J31" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J32" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J33" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2567,269 +3060,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
-  <dimension ref="B2:O29"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965771F0-7342-4880-AEC0-EBD5FFC06D58}">
+  <dimension ref="L5:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2">
-        <v>406</v>
-      </c>
-      <c r="M2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3">
-        <v>812</v>
-      </c>
-      <c r="M3">
-        <v>262</v>
-      </c>
-      <c r="N3">
-        <f>SUM(L3:M3)</f>
-        <v>1074</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5">
-        <v>787</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>1723</v>
-      </c>
-      <c r="J5">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6">
-        <v>147</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27">
-        <v>6209</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>16855</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>23064</v>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L5" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L7" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB919E-2F2E-4B59-B19A-4EB876F87DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97AE5ED-AEF7-40DD-8CDE-AB32225FE0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -630,33 +630,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>[16,17]</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
     <t>BZR</t>
   </si>
   <si>
-    <t>[7]</t>
-  </si>
-  <si>
     <t>BZR_MD</t>
   </si>
   <si>
-    <t>[7,23]</t>
-  </si>
-  <si>
     <t>COX2</t>
   </si>
   <si>
@@ -666,15 +651,9 @@
     <t>DD</t>
   </si>
   <si>
-    <t>[6,22]</t>
-  </si>
-  <si>
     <t>IMDB-BINARY</t>
   </si>
   <si>
-    <t>[14]</t>
-  </si>
-  <si>
     <t>Num. of Graphs</t>
   </si>
   <si>
@@ -687,37 +666,16 @@
     <t>KKI</t>
   </si>
   <si>
-    <t>[26]</t>
-  </si>
-  <si>
-    <t>MSRC_21</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
     <t>PROTEINS</t>
   </si>
   <si>
-    <t>[4,6]</t>
-  </si>
-  <si>
     <t>PTC_MR</t>
   </si>
   <si>
-    <t>[2,23]</t>
-  </si>
-  <si>
     <t>MUTAG</t>
   </si>
   <si>
-    <t>[1,23]</t>
-  </si>
-  <si>
     <t>NCI1</t>
-  </si>
-  <si>
-    <t>[8,9,22]</t>
   </si>
   <si>
     <t>IMDB-MULTI</t>
@@ -1113,6 +1071,17 @@
   <si>
     <t>-----</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An End-to-End Deep LearningArchitecture for Graph Classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLAB</t>
   </si>
 </sst>
 </file>
@@ -1355,15 +1324,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1375,6 +1335,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,15 +1367,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>289561</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>595735</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1761,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2281,6 +2250,9 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -2312,7 +2284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2347,7 @@
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -2386,7 +2358,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G5">
         <v>787</v>
@@ -2406,7 +2378,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G6">
         <v>147</v>
@@ -2426,7 +2398,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
@@ -2434,7 +2406,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
@@ -2529,37 +2501,37 @@
     </row>
     <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>6209</v>
@@ -2567,7 +2539,7 @@
     </row>
     <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D28">
         <v>16855</v>
@@ -2587,471 +2559,431 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C6A3-0961-4885-ABBE-5341039D1517}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="19.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="6"/>
-    <col min="10" max="10" width="26.88671875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="60.77734375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="19.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="60.77734375" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>15.69</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="7">
+        <v>405</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35.75</v>
+      </c>
+      <c r="E4" s="7">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B5" s="7">
+        <v>306</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>225.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B6" s="7">
+        <v>467</v>
+      </c>
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
-        <v>15.69</v>
-      </c>
-      <c r="F3" s="7">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="D6" s="7">
+        <v>41.22</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="7">
-        <v>405</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B7" s="7">
+        <v>467</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
-        <v>35.75</v>
-      </c>
-      <c r="F4" s="7">
-        <v>38.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="7">
-        <v>306</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>21.3</v>
-      </c>
-      <c r="F5" s="7">
-        <v>225.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7">
-        <v>467</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>41.22</v>
-      </c>
-      <c r="F6" s="7">
-        <v>43.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7">
-        <v>467</v>
-      </c>
       <c r="D7" s="7">
-        <v>2</v>
+        <v>42.43</v>
       </c>
       <c r="E7" s="7">
-        <v>42.43</v>
-      </c>
-      <c r="F7" s="7">
         <v>44.54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="7">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>26.96</v>
+      </c>
+      <c r="E8" s="7">
+        <v>48.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>188</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>17.93</v>
+      </c>
+      <c r="E9" s="7">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7">
+        <v>344</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14.29</v>
+      </c>
+      <c r="E10" s="7">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4110</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>29.87</v>
+      </c>
+      <c r="E11" s="7">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B12" s="7">
+        <v>1113</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>39.06</v>
+      </c>
+      <c r="E12" s="7">
+        <v>72.819999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="7">
         <v>1178</v>
       </c>
-      <c r="D8" s="7">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="D13" s="7">
         <v>284.32</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E13" s="7">
         <v>715.66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="7">
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="7">
         <v>1000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="D14" s="7">
         <v>19.77</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E14" s="7">
         <v>96.53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="7">
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="7">
         <v>1500</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="D15" s="7">
         <v>13</v>
       </c>
-      <c r="F10" s="7">
+      <c r="E15" s="7">
         <v>65.94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="7">
-        <v>83</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>26.96</v>
-      </c>
-      <c r="F11" s="7">
-        <v>48.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="7">
-        <v>563</v>
-      </c>
-      <c r="D12" s="7">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7">
-        <v>77.52</v>
-      </c>
-      <c r="F12" s="7">
-        <v>198.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1113</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>39.06</v>
-      </c>
-      <c r="F13" s="7">
-        <v>72.819999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="7">
-        <v>344</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>14.29</v>
-      </c>
-      <c r="F14" s="7">
-        <v>14.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="7">
-        <v>188</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>17.93</v>
-      </c>
-      <c r="F15" s="7">
-        <v>19.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>123</v>
+        <v>160</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5000</v>
       </c>
       <c r="C16" s="7">
-        <v>4110</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="E16" s="7">
-        <v>29.87</v>
-      </c>
-      <c r="F16" s="7">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+        <v>2457.7800000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <f>AVERAGE(B3:B16)</f>
+        <v>1297.2142857142858</v>
+      </c>
       <c r="C17" s="6">
-        <v>980</v>
+        <f>AVERAGE(D3:D16)</f>
+        <v>48.291428571428568</v>
+      </c>
+      <c r="D17" s="6">
+        <f>AVERAGE(D3:D16)</f>
+        <v>48.291428571428568</v>
       </c>
       <c r="E17" s="6">
-        <v>50</v>
-      </c>
-      <c r="F17" s="6">
-        <v>116.5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J24" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="15" t="s">
+        <f>AVERAGE(E3:E16)</f>
+        <v>277.96714285714285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J37" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3071,78 +3003,78 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L5" s="16" t="s">
-        <v>129</v>
+      <c r="L5" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" s="16"/>
+      <c r="L6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="N7" s="16"/>
+      <c r="L7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L8" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="16"/>
+      <c r="L8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L9" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="N9" s="16"/>
+      <c r="L9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="16" t="s">
-        <v>170</v>
+      <c r="L10" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L11" s="16" t="s">
-        <v>170</v>
+      <c r="L11" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L12" s="16" t="s">
-        <v>170</v>
+      <c r="L12" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L13" s="16" t="s">
-        <v>170</v>
+      <c r="L13" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="16" t="s">
-        <v>170</v>
+      <c r="L14" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L15" s="16" t="s">
-        <v>170</v>
+      <c r="L15" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="16" t="s">
-        <v>170</v>
+      <c r="L16" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="16" t="s">
-        <v>170</v>
+      <c r="L17" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97AE5ED-AEF7-40DD-8CDE-AB32225FE0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6732E3A-84EC-439F-9950-A6F2FB628357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1800" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1152,14 +1152,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,12 +1187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EACC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,12 +1318,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1344,6 +1332,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1367,16 +1358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>289561</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866505</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>193767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>595735</xdr:colOff>
+      <xdr:colOff>583553</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1399,8 +1390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5006341" y="5059680"/>
-          <a:ext cx="4230474" cy="4373880"/>
+          <a:off x="2379619" y="4874624"/>
+          <a:ext cx="6237591" cy="6555377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2562,7 +2553,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2573,8 +2564,8 @@
     <col min="4" max="4" width="20.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.109375" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.88671875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="60.77734375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="38" style="9" customWidth="1"/>
+    <col min="10" max="10" width="85.5546875" style="9" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
@@ -2582,12 +2573,12 @@
       <c r="A1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -2861,123 +2852,123 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="11" t="s">
+    <row r="23" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="11" t="s">
+    <row r="24" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="11" t="s">
+    <row r="25" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="11" t="s">
+    <row r="26" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="11" t="s">
+    <row r="27" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="11" t="s">
+    <row r="28" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="11" t="s">
+    <row r="29" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="11" t="s">
+    <row r="30" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="11" t="s">
+    <row r="31" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="11" t="s">
+    <row r="32" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="11" t="s">
+    <row r="33" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="11" t="s">
+    <row r="34" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="11" t="s">
+    <row r="35" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="11" t="s">
+    <row r="36" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="9:10" s="10" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="11" t="s">
+    <row r="37" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="16" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3003,77 +2994,77 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="N8" s="13"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>156</v>
       </c>
     </row>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6732E3A-84EC-439F-9950-A6F2FB628357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C7F08C-3383-4655-B361-95469CA1F909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="162">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -1082,6 +1082,10 @@
   </si>
   <si>
     <t>COLLAB</t>
+  </si>
+  <si>
+    <t>Robust Bi-Tempered Logistic Loss Based on Bregman Divergences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1324,6 +1328,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,9 +1339,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1721,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2246,12 +2250,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -2275,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C6A3-0961-4885-ABBE-5341039D1517}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2573,12 +2580,12 @@
       <c r="A1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -2853,122 +2860,122 @@
     </row>
     <row r="22" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="33" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="34" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="35" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="36" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="37" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="13" t="s">
         <v>140</v>
       </c>
     </row>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C7F08C-3383-4655-B361-95469CA1F909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AC0BB-4191-4912-B115-9DBE960D211F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3108" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="169">
   <si>
     <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
   </si>
@@ -1085,6 +1085,34 @@
   </si>
   <si>
     <t>Robust Bi-Tempered Logistic Loss Based on Bregman Divergences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌兴宏. 基于XML的Agent通信语言[J]. 计算机应用研究, 2003, 20(7):152-154.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于东, 李筱颿, 黄艳, et al. 基于XML的STEP-NC程序解释器的设计与实现[J]. 小型微型计算机系统, 2009, 30(10):1956-1959.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈欣, 胡晓惠, 付勇, et al. 基于XML的仿真想定标记语言SSML[J]. 系统仿真学报, 2004, 16(9):1928-1930.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴倩, 陶亦亦, 陆春元. 基于XML的软PLC语言编辑系统的设计与实现[J]. 机械制造与自动化, 2007, 36(2):100-102.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈林, 黄晔. 基于XML的消息队列标记语言[J]. 计算机工程, 2007, 33(19):85-87.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟莹, 陈祥献. 基于XML的虚拟仪器标记语言--VIML[J]. 仪器仪表学报, 2002(s3).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚屏. 基于XML的机械图形标记语言的研究与开发[D]. 中南大学, 2005.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1723,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2261,6 +2289,57 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AC0BB-4191-4912-B115-9DBE960D211F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F875E-E367-44A7-B34A-3E777EB4E563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="169">
-  <si>
-    <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
-  </si>
-  <si>
-    <t>W. Hwu, K. Keutzer, T.G. Mattson, “The concurrency challenge,” IEEE Design and Test of Computer, vol. 25, no. 4, July 2008, pp. 312-320.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="170">
   <si>
     <t>Discovering Pipeline Parallel Patterns in Sequential Legacy C++ Codes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,13 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Uday Bondhugula, Albert Hartono, J. Ramanujam, and P. Sadayappan. A practical automatic
-polyhedral parallelizer and locality optimizer. In Proceedings of the 2008 ACM
-SIGPLAN Conference on Programming Language Design and Implementation, PLDI ’08,
-pages 101–113, New York, NY, USA, 2008. ACM.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sang-Ik Lee, TroyA. Johnson, and Rudolf Eigenmann. Cetus - an extensible compiler infrastructure
 for source-to-source transformation. In Languages and Compilers for Parallel
 Computing, volume 2958 of Lecture Notes in Computer Science, pages 539–553. Springer
@@ -1113,6 +1101,33 @@
   </si>
   <si>
     <t>姚屏. 基于XML的机械图形标记语言的研究与开发[D]. 中南大学, 2005.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. Kirk, W. Hwu, “Programming Massively Parallel Processors: A Hands-on Approach,” Morgan Kaufmann, 2010.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W. Hwu, K. Keutzer, T.G. Mattson, “The concurrency challenge,” IEEE Design and Test of Computer, vol. 25, no. 4, July 2008, pp. 312-320.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palkowski M, Bielecki W. Tiling Nussinov’s RNA folding loop nest with a space-time approach[J]. BMC bioinformatics, 2019, 20(1): 208.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ilexica GmbH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, [online] Available: https://www.silexica.com.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,14 +1148,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1190,6 +1197,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1197,12 +1225,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1219,6 +1241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EACC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,38 +1344,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1356,18 +1378,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1751,595 +1787,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="103.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="103.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>44</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>50</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>51</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>55</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="69" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>58</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>59</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>61</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>63</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>64</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>65</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2" t="s">
+    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>67</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>69</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>70</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>71</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>72</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2347,10 +2379,10 @@
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" xr:uid="{B74AEF81-772C-43A8-B573-657354A81F76}"/>
     <hyperlink ref="B49" r:id="rId2" xr:uid="{45E160F3-33AB-41E9-A340-07B3225E8134}"/>
-    <hyperlink ref="B50" r:id="rId3" xr:uid="{04874108-34B2-44C0-8C26-70423C1E60C7}"/>
-    <hyperlink ref="B51" r:id="rId4" xr:uid="{377922B2-34A7-4853-8A00-52F065AA5891}"/>
-    <hyperlink ref="B55" r:id="rId5" xr:uid="{164551FC-2C2C-4CF8-A1A0-E6DCA65C8F2F}"/>
-    <hyperlink ref="B60" r:id="rId6" xr:uid="{A07500ED-11E5-4527-8587-921A2079FB8D}"/>
+    <hyperlink ref="B59" r:id="rId3" xr:uid="{A07500ED-11E5-4527-8587-921A2079FB8D}"/>
+    <hyperlink ref="B50" r:id="rId4" xr:uid="{2FA84615-EA38-4D28-A1B3-C09E7AA4CE37}"/>
+    <hyperlink ref="B51" r:id="rId5" xr:uid="{861A6854-D929-481E-98B4-2E14FE1B787F}"/>
+    <hyperlink ref="B55" r:id="rId6" xr:uid="{020C5ACB-02DB-4553-BB28-C4B467AE1706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
@@ -2361,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16FAAB3-CC9C-4F7D-99A7-BA6BE83524B3}">
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2376,11 +2408,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="L2">
         <v>406</v>
@@ -2390,11 +2422,11 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="L3">
         <v>812</v>
@@ -2407,35 +2439,35 @@
         <v>1074</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>61</v>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>112</v>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G5">
         <v>787</v>
@@ -2451,11 +2483,11 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>113</v>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G6">
         <v>147</v>
@@ -2471,152 +2503,152 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
       </c>
       <c r="G17">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>92</v>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
       </c>
       <c r="G18">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>91</v>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="H19">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>93</v>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D27">
         <v>6209</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>125</v>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D28">
         <v>16855</v>
@@ -2644,418 +2676,418 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="38" style="9" customWidth="1"/>
-    <col min="10" max="10" width="85.5546875" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="22" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="4" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="38" style="7" customWidth="1"/>
+    <col min="10" max="10" width="85.5546875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15.69</v>
+      </c>
+      <c r="E3" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="5">
+        <v>405</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>35.75</v>
+      </c>
+      <c r="E4" s="5">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B5" s="5">
+        <v>306</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>225.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="5">
+        <v>467</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41.22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="5">
+        <v>467</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42.43</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B8" s="5">
+        <v>83</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>26.96</v>
+      </c>
+      <c r="E8" s="5">
+        <v>48.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5">
+        <v>188</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>17.93</v>
+      </c>
+      <c r="E9" s="5">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5">
+        <v>344</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>14.29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4110</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>29.87</v>
+      </c>
+      <c r="E11" s="5">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B12" s="5">
+        <v>1113</v>
+      </c>
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
-        <v>15.69</v>
-      </c>
-      <c r="E3" s="7">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="7">
-        <v>405</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="D12" s="5">
+        <v>39.06</v>
+      </c>
+      <c r="E12" s="5">
+        <v>72.819999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1178</v>
+      </c>
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>35.75</v>
-      </c>
-      <c r="E4" s="7">
-        <v>38.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="7">
-        <v>306</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="D13" s="5">
+        <v>284.32</v>
+      </c>
+      <c r="E13" s="5">
+        <v>715.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>21.3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>225.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="7">
-        <v>467</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>41.22</v>
-      </c>
-      <c r="E6" s="7">
-        <v>43.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="7">
-        <v>467</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>42.43</v>
-      </c>
-      <c r="E7" s="7">
-        <v>44.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="7">
-        <v>83</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>26.96</v>
-      </c>
-      <c r="E8" s="7">
-        <v>48.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="7">
-        <v>188</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>17.93</v>
-      </c>
-      <c r="E9" s="7">
-        <v>19.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="D14" s="5">
+        <v>19.77</v>
+      </c>
+      <c r="E14" s="5">
+        <v>96.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="7">
-        <v>344</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>14.29</v>
-      </c>
-      <c r="E10" s="7">
-        <v>14.69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="7">
-        <v>4110</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>29.87</v>
-      </c>
-      <c r="E11" s="7">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1113</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>39.06</v>
-      </c>
-      <c r="E12" s="7">
-        <v>72.819999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1178</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>284.32</v>
-      </c>
-      <c r="E13" s="7">
-        <v>715.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>19.77</v>
-      </c>
-      <c r="E14" s="7">
-        <v>96.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>1500</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>13</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>65.94</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="5">
         <v>5000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>74.489999999999995</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>2457.7800000000002</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <f>AVERAGE(B3:B16)</f>
         <v>1297.2142857142858</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <f>AVERAGE(D3:D16)</f>
         <v>48.291428571428568</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <f>AVERAGE(D3:D16)</f>
         <v>48.291428571428568</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <f>AVERAGE(E3:E16)</f>
         <v>277.96714285714285</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" s="13" t="s">
+    <row r="23" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J24" s="13" t="s">
+    <row r="27" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" s="13" t="s">
+    <row r="28" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="13" t="s">
+    <row r="29" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="13" t="s">
+    <row r="30" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="13" t="s">
+    <row r="31" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="13" t="s">
+    <row r="32" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="13" t="s">
+    <row r="33" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J31" s="13" t="s">
+    <row r="34" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="13" t="s">
+    <row r="35" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="13" t="s">
+    <row r="36" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="13" t="s">
+    <row r="37" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3073,85 +3105,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965771F0-7342-4880-AEC0-EBD5FFC06D58}">
   <dimension ref="L5:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L5" s="11" t="s">
-        <v>115</v>
+      <c r="L5" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="11"/>
+      <c r="L6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="11"/>
+      <c r="L7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L8" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" s="11"/>
+      <c r="L8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" s="11"/>
+      <c r="L9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="11" t="s">
-        <v>156</v>
+      <c r="L10" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L11" s="11" t="s">
-        <v>156</v>
+      <c r="L11" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L12" s="11" t="s">
-        <v>156</v>
+      <c r="L12" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L13" s="11" t="s">
-        <v>156</v>
+      <c r="L13" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="11" t="s">
-        <v>156</v>
+      <c r="L14" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L15" s="11" t="s">
-        <v>156</v>
+      <c r="L15" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="11" t="s">
-        <v>156</v>
+      <c r="L16" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="11" t="s">
-        <v>156</v>
+      <c r="L17" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F875E-E367-44A7-B34A-3E777EB4E563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBC133D-4F43-4DF1-AE7A-8BCFF208B47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8484" yWindow="1452" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1135,7 +1134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1217,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1251,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1341,12 +1354,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1390,6 +1412,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,11 +1426,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1789,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B55" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
@@ -2199,10 +2236,10 @@
       <c r="A50" s="13">
         <v>50</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2210,7 +2247,7 @@
       <c r="A51" s="13">
         <v>51</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2242,7 +2279,7 @@
       <c r="A55" s="13">
         <v>55</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2691,12 +2728,12 @@
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -3103,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965771F0-7342-4880-AEC0-EBD5FFC06D58}">
-  <dimension ref="L5:N17"/>
+  <dimension ref="C5:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3181,14 +3218,513 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="L17" s="9" t="s">
         <v>153</v>
       </c>
     </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="M25" s="26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="21">
+        <v>2</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="21">
+        <v>3</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="21">
+        <v>4</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="21">
+        <v>5</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="21">
+        <v>6</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="21">
+        <v>7</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="21">
+        <v>8</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="21">
+        <v>9</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1</v>
+      </c>
+      <c r="F35" s="21">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="21">
+        <v>10</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="21">
+        <v>11</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="21">
+        <v>12</v>
+      </c>
+      <c r="D38" s="21">
+        <v>1</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1</v>
+      </c>
+      <c r="F38" s="21">
+        <v>1</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1</v>
+      </c>
+      <c r="J38" s="21">
+        <v>1</v>
+      </c>
+      <c r="K38" s="21">
+        <v>1</v>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="21">
+        <v>13</v>
+      </c>
+      <c r="D39" s="21">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21">
+        <v>1</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="21">
+        <v>14</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="21">
+        <v>15</v>
+      </c>
+      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1</v>
+      </c>
+      <c r="G41" s="21">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21">
+        <v>1</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="21">
+        <v>16</v>
+      </c>
+      <c r="D42" s="21">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1</v>
+      </c>
+      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+      <c r="G42" s="21">
+        <v>1</v>
+      </c>
+      <c r="H42" s="21">
+        <v>1</v>
+      </c>
+      <c r="I42" s="21">
+        <v>1</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="21">
+        <v>17</v>
+      </c>
+      <c r="D43" s="21">
+        <v>1</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21">
+        <v>1</v>
+      </c>
+      <c r="G43" s="21">
+        <v>1</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="21">
+        <v>18</v>
+      </c>
+      <c r="D44" s="21">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
+      </c>
+      <c r="F44" s="21">
+        <v>1</v>
+      </c>
+      <c r="G44" s="21">
+        <v>1</v>
+      </c>
+      <c r="H44" s="21">
+        <v>1</v>
+      </c>
+      <c r="I44" s="21">
+        <v>1</v>
+      </c>
+      <c r="J44" s="21">
+        <v>1</v>
+      </c>
+      <c r="K44" s="21">
+        <v>1</v>
+      </c>
+      <c r="L44" s="21">
+        <v>1</v>
+      </c>
+      <c r="M44" s="21">
+        <v>1</v>
+      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="21">
+        <v>19</v>
+      </c>
+      <c r="D45" s="21">
+        <v>1</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1</v>
+      </c>
+      <c r="F45" s="21">
+        <v>1</v>
+      </c>
+      <c r="G45" s="21">
+        <v>1</v>
+      </c>
+      <c r="H45" s="21">
+        <v>1</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="21">
+        <v>20</v>
+      </c>
+      <c r="D46" s="21">
+        <v>1</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I25:I37"/>
+    <mergeCell ref="M25:M40"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/参考文献/论文参考文献/参考文献.xlsx
+++ b/参考文献/论文参考文献/参考文献.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\参考文献\论文参考文献\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBC133D-4F43-4DF1-AE7A-8BCFF208B47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B8F86D-E258-4FA0-B169-6D5E507CCDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8484" yWindow="1452" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1190,13 +1190,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1230,6 +1223,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1366,7 +1366,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1400,23 +1400,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1426,20 +1426,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1832,13 +1832,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="103.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
+      <c r="A1" s="12">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1870,7 +1870,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1878,7 +1878,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1982,7 +1982,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2102,7 +2102,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2118,7 +2118,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2126,7 +2126,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2185,15 +2185,15 @@
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>44</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2201,7 +2201,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2225,7 +2225,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2233,26 +2233,26 @@
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>50</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>51</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2276,15 +2276,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>55</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2300,7 +2300,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2324,7 +2324,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2332,7 +2332,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2340,7 +2340,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2348,7 +2348,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2372,7 +2372,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2388,7 +2388,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2396,7 +2396,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C6A3-0961-4885-ABBE-5341039D1517}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2720,7 +2720,7 @@
     <col min="5" max="5" width="19.109375" style="4" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="4"/>
     <col min="9" max="9" width="38" style="7" customWidth="1"/>
-    <col min="10" max="10" width="85.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="123.6640625" style="7" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -2728,12 +2728,12 @@
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -3008,122 +3008,122 @@
     </row>
     <row r="22" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="27" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="34" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="27" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="36" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="9:10" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="27" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965771F0-7342-4880-AEC0-EBD5FFC06D58}">
   <dimension ref="C5:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -3230,9 +3230,9 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="I25" s="24"/>
-      <c r="M25" s="26">
+      <c r="E25" s="18"/>
+      <c r="I25" s="23"/>
+      <c r="M25" s="25">
         <v>38</v>
       </c>
     </row>
@@ -3243,9 +3243,9 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="I26" s="24"/>
-      <c r="M26" s="26"/>
+      <c r="E26" s="18"/>
+      <c r="I26" s="23"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -3254,468 +3254,468 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="I27" s="24"/>
-      <c r="M27" s="26"/>
+      <c r="E27" s="18"/>
+      <c r="I27" s="23"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>2</v>
       </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="21">
+      <c r="C29" s="17">
         <v>3</v>
       </c>
-      <c r="D29" s="21">
-        <v>1</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>4</v>
       </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>5</v>
       </c>
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>6</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>7</v>
       </c>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="21">
-        <v>1</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>8</v>
       </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="21">
-        <v>1</v>
-      </c>
-      <c r="F34" s="21">
-        <v>1</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="21">
+      <c r="C35" s="17">
         <v>9</v>
       </c>
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
-      <c r="F35" s="21">
-        <v>1</v>
-      </c>
-      <c r="G35" s="21">
-        <v>1</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>10</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="21">
+      <c r="C37" s="17">
         <v>11</v>
       </c>
-      <c r="D37" s="21">
-        <v>1</v>
-      </c>
-      <c r="E37" s="21">
-        <v>1</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>12</v>
       </c>
-      <c r="D38" s="21">
-        <v>1</v>
-      </c>
-      <c r="E38" s="21">
-        <v>1</v>
-      </c>
-      <c r="F38" s="21">
-        <v>1</v>
-      </c>
-      <c r="G38" s="21">
-        <v>1</v>
-      </c>
-      <c r="H38" s="21">
-        <v>1</v>
-      </c>
-      <c r="I38" s="21">
-        <v>1</v>
-      </c>
-      <c r="J38" s="21">
-        <v>1</v>
-      </c>
-      <c r="K38" s="21">
-        <v>1</v>
-      </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="21">
+      <c r="C39" s="17">
         <v>13</v>
       </c>
-      <c r="D39" s="21">
-        <v>1</v>
-      </c>
-      <c r="E39" s="21">
-        <v>1</v>
-      </c>
-      <c r="F39" s="21">
-        <v>1</v>
-      </c>
-      <c r="G39" s="21">
-        <v>1</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="21">
+      <c r="C40" s="17">
         <v>14</v>
       </c>
-      <c r="D40" s="21">
-        <v>1</v>
-      </c>
-      <c r="E40" s="21">
-        <v>1</v>
-      </c>
-      <c r="F40" s="21">
-        <v>1</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="21">
+      <c r="C41" s="17">
         <v>15</v>
       </c>
-      <c r="D41" s="21">
-        <v>1</v>
-      </c>
-      <c r="E41" s="21">
-        <v>1</v>
-      </c>
-      <c r="F41" s="21">
-        <v>1</v>
-      </c>
-      <c r="G41" s="21">
-        <v>1</v>
-      </c>
-      <c r="H41" s="21">
-        <v>1</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="21">
+      <c r="C42" s="17">
         <v>16</v>
       </c>
-      <c r="D42" s="21">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21">
-        <v>1</v>
-      </c>
-      <c r="F42" s="21">
-        <v>1</v>
-      </c>
-      <c r="G42" s="21">
-        <v>1</v>
-      </c>
-      <c r="H42" s="21">
-        <v>1</v>
-      </c>
-      <c r="I42" s="21">
-        <v>1</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="21">
+      <c r="C43" s="17">
         <v>17</v>
       </c>
-      <c r="D43" s="21">
-        <v>1</v>
-      </c>
-      <c r="E43" s="21">
-        <v>1</v>
-      </c>
-      <c r="F43" s="21">
-        <v>1</v>
-      </c>
-      <c r="G43" s="21">
-        <v>1</v>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="21">
+      <c r="C44" s="17">
         <v>18</v>
       </c>
-      <c r="D44" s="21">
-        <v>1</v>
-      </c>
-      <c r="E44" s="21">
-        <v>1</v>
-      </c>
-      <c r="F44" s="21">
-        <v>1</v>
-      </c>
-      <c r="G44" s="21">
-        <v>1</v>
-      </c>
-      <c r="H44" s="21">
-        <v>1</v>
-      </c>
-      <c r="I44" s="21">
-        <v>1</v>
-      </c>
-      <c r="J44" s="21">
-        <v>1</v>
-      </c>
-      <c r="K44" s="21">
-        <v>1</v>
-      </c>
-      <c r="L44" s="21">
-        <v>1</v>
-      </c>
-      <c r="M44" s="21">
-        <v>1</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+      <c r="J44" s="17">
+        <v>1</v>
+      </c>
+      <c r="K44" s="17">
+        <v>1</v>
+      </c>
+      <c r="L44" s="17">
+        <v>1</v>
+      </c>
+      <c r="M44" s="17">
+        <v>1</v>
+      </c>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="21">
+      <c r="C45" s="17">
         <v>19</v>
       </c>
-      <c r="D45" s="21">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21">
-        <v>1</v>
-      </c>
-      <c r="F45" s="21">
-        <v>1</v>
-      </c>
-      <c r="G45" s="21">
-        <v>1</v>
-      </c>
-      <c r="H45" s="21">
-        <v>1</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="21">
+      <c r="C46" s="17">
         <v>20</v>
       </c>
-      <c r="D46" s="21">
-        <v>1</v>
-      </c>
-      <c r="E46" s="21">
-        <v>1</v>
-      </c>
-      <c r="F46" s="21">
-        <v>1</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
